--- a/GUI + Reviews/debug_output.xlsx
+++ b/GUI + Reviews/debug_output.xlsx
@@ -804,7 +804,7 @@
         <v>64</v>
       </c>
       <c r="J2">
-        <v>25.76</v>
+        <v>25.64</v>
       </c>
       <c r="K2">
         <v>25.87</v>
@@ -851,7 +851,7 @@
         <v>65</v>
       </c>
       <c r="J3">
-        <v>1345.2</v>
+        <v>1321</v>
       </c>
       <c r="K3">
         <v>1474.4</v>
@@ -898,7 +898,7 @@
         <v>66</v>
       </c>
       <c r="J4">
-        <v>6.64</v>
+        <v>6.54</v>
       </c>
       <c r="K4">
         <v>6.856</v>
@@ -945,7 +945,7 @@
         <v>67</v>
       </c>
       <c r="J5">
-        <v>34.32</v>
+        <v>33.67</v>
       </c>
       <c r="K5">
         <v>35.05</v>
@@ -992,7 +992,7 @@
         <v>68</v>
       </c>
       <c r="J6">
-        <v>61.2</v>
+        <v>60.86</v>
       </c>
       <c r="K6">
         <v>60.92</v>
@@ -1039,7 +1039,7 @@
         <v>116</v>
       </c>
       <c r="J7">
-        <v>29.59</v>
+        <v>29.4</v>
       </c>
       <c r="K7">
         <v>29.16</v>
@@ -1086,7 +1086,7 @@
         <v>70</v>
       </c>
       <c r="J8">
-        <v>424.5</v>
+        <v>455.9</v>
       </c>
       <c r="K8">
         <v>409.7</v>
@@ -1133,13 +1133,13 @@
         <v>71</v>
       </c>
       <c r="J9">
-        <v>689.8</v>
+        <v>732.9</v>
       </c>
       <c r="K9">
         <v>646.2</v>
       </c>
       <c r="L9">
-        <v>1.1727</v>
+        <v>1.1852</v>
       </c>
       <c r="M9" t="s">
         <v>113</v>
@@ -1180,7 +1180,7 @@
         <v>72</v>
       </c>
       <c r="J10">
-        <v>58.56</v>
+        <v>56.9</v>
       </c>
       <c r="K10">
         <v>63.26</v>
@@ -1227,7 +1227,7 @@
         <v>73</v>
       </c>
       <c r="J11">
-        <v>111.85</v>
+        <v>116.6</v>
       </c>
       <c r="K11">
         <v>119</v>
@@ -1274,7 +1274,7 @@
         <v>74</v>
       </c>
       <c r="J12">
-        <v>15.23</v>
+        <v>15.04</v>
       </c>
       <c r="K12">
         <v>17.53</v>
@@ -1321,7 +1321,7 @@
         <v>75</v>
       </c>
       <c r="J13">
-        <v>80.48</v>
+        <v>78.22</v>
       </c>
       <c r="K13">
         <v>84.94</v>
@@ -1368,7 +1368,7 @@
         <v>76</v>
       </c>
       <c r="J14">
-        <v>83.95</v>
+        <v>83.5</v>
       </c>
       <c r="K14">
         <v>87.25</v>
@@ -1415,7 +1415,7 @@
         <v>77</v>
       </c>
       <c r="J15">
-        <v>66</v>
+        <v>65.52</v>
       </c>
       <c r="K15">
         <v>70.86</v>
@@ -1462,7 +1462,7 @@
         <v>78</v>
       </c>
       <c r="J16">
-        <v>91.66</v>
+        <v>91.62</v>
       </c>
       <c r="K16">
         <v>95.7</v>
@@ -1509,7 +1509,7 @@
         <v>79</v>
       </c>
       <c r="J17">
-        <v>21.585</v>
+        <v>21.505</v>
       </c>
       <c r="K17">
         <v>21.32</v>
@@ -1556,7 +1556,7 @@
         <v>80</v>
       </c>
       <c r="J18">
-        <v>10.99</v>
+        <v>10.83</v>
       </c>
       <c r="K18">
         <v>13.13</v>
@@ -1603,7 +1603,7 @@
         <v>81</v>
       </c>
       <c r="J19">
-        <v>31.24</v>
+        <v>31.08</v>
       </c>
       <c r="K19">
         <v>26.54</v>
@@ -1697,7 +1697,7 @@
         <v>83</v>
       </c>
       <c r="J21">
-        <v>4.255</v>
+        <v>4.173</v>
       </c>
       <c r="K21">
         <v>4.062</v>
@@ -1744,7 +1744,7 @@
         <v>84</v>
       </c>
       <c r="J22">
-        <v>59.24</v>
+        <v>57.54</v>
       </c>
       <c r="K22">
         <v>61.26</v>
@@ -1791,7 +1791,7 @@
         <v>85</v>
       </c>
       <c r="J23">
-        <v>24.04</v>
+        <v>23.7</v>
       </c>
       <c r="K23">
         <v>24.07</v>
@@ -1838,7 +1838,7 @@
         <v>86</v>
       </c>
       <c r="J24">
-        <v>54.59</v>
+        <v>54.63</v>
       </c>
       <c r="K24">
         <v>53.61</v>
@@ -1885,13 +1885,13 @@
         <v>87</v>
       </c>
       <c r="J25">
-        <v>36.55</v>
+        <v>35.65</v>
       </c>
       <c r="K25">
         <v>41.69</v>
       </c>
       <c r="L25">
-        <v>1.1727</v>
+        <v>1.1852</v>
       </c>
       <c r="M25" t="s">
         <v>113</v>
@@ -1932,13 +1932,13 @@
         <v>88</v>
       </c>
       <c r="J26">
-        <v>39.78</v>
+        <v>39.44</v>
       </c>
       <c r="K26">
         <v>41.38</v>
       </c>
       <c r="L26">
-        <v>1.1727</v>
+        <v>1.1852</v>
       </c>
       <c r="M26" t="s">
         <v>113</v>
@@ -1979,7 +1979,7 @@
         <v>89</v>
       </c>
       <c r="J27">
-        <v>30.66</v>
+        <v>30.56</v>
       </c>
       <c r="K27">
         <v>31.225</v>
@@ -2026,7 +2026,7 @@
         <v>90</v>
       </c>
       <c r="J28">
-        <v>24.59</v>
+        <v>24.6</v>
       </c>
       <c r="K28">
         <v>24.81</v>
@@ -2073,7 +2073,7 @@
         <v>91</v>
       </c>
       <c r="J29">
-        <v>53.62</v>
+        <v>52.52</v>
       </c>
       <c r="K29">
         <v>53.98</v>
@@ -2120,7 +2120,7 @@
         <v>92</v>
       </c>
       <c r="J30">
-        <v>21.12</v>
+        <v>21.04</v>
       </c>
       <c r="K30">
         <v>22.48</v>
@@ -2167,7 +2167,7 @@
         <v>93</v>
       </c>
       <c r="J31">
-        <v>112.3</v>
+        <v>110.35</v>
       </c>
       <c r="K31">
         <v>115.3</v>
@@ -2214,7 +2214,7 @@
         <v>94</v>
       </c>
       <c r="J32">
-        <v>50</v>
+        <v>49.04</v>
       </c>
       <c r="K32">
         <v>54.24</v>
@@ -2261,13 +2261,13 @@
         <v>95</v>
       </c>
       <c r="J33">
-        <v>233.2</v>
+        <v>229.6</v>
       </c>
       <c r="K33">
         <v>229</v>
       </c>
       <c r="L33">
-        <v>1.1727</v>
+        <v>1.1852</v>
       </c>
       <c r="M33" t="s">
         <v>114</v>
@@ -2308,13 +2308,13 @@
         <v>96</v>
       </c>
       <c r="J34">
-        <v>62.9</v>
+        <v>62.7</v>
       </c>
       <c r="K34">
         <v>64.84999999999999</v>
       </c>
       <c r="L34">
-        <v>1.1727</v>
+        <v>1.1852</v>
       </c>
       <c r="M34" t="s">
         <v>114</v>
@@ -2355,7 +2355,7 @@
         <v>97</v>
       </c>
       <c r="J35">
-        <v>59.2</v>
+        <v>57.85</v>
       </c>
       <c r="K35">
         <v>62.5</v>
@@ -2402,7 +2402,7 @@
         <v>98</v>
       </c>
       <c r="J36">
-        <v>644.4</v>
+        <v>630.6</v>
       </c>
       <c r="K36">
         <v>565.6</v>
@@ -2449,7 +2449,7 @@
         <v>99</v>
       </c>
       <c r="J37">
-        <v>11.87</v>
+        <v>12.18</v>
       </c>
       <c r="K37">
         <v>13.48</v>
@@ -2496,7 +2496,7 @@
         <v>100</v>
       </c>
       <c r="J38">
-        <v>73.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K38">
         <v>76.3</v>
@@ -2543,7 +2543,7 @@
         <v>101</v>
       </c>
       <c r="J39">
-        <v>165.3</v>
+        <v>162.2</v>
       </c>
       <c r="K39">
         <v>190.8</v>
@@ -2590,7 +2590,7 @@
         <v>102</v>
       </c>
       <c r="J40">
-        <v>95.25</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="K40">
         <v>99.45</v>
@@ -2637,13 +2637,13 @@
         <v>103</v>
       </c>
       <c r="J41">
-        <v>76</v>
+        <v>74.3</v>
       </c>
       <c r="K41">
         <v>76.7</v>
       </c>
       <c r="L41">
-        <v>1.1727</v>
+        <v>1.1852</v>
       </c>
       <c r="M41" t="s">
         <v>114</v>
@@ -2684,7 +2684,7 @@
         <v>104</v>
       </c>
       <c r="J42">
-        <v>101.85</v>
+        <v>100.85</v>
       </c>
       <c r="K42">
         <v>104.9</v>
@@ -2731,7 +2731,7 @@
         <v>105</v>
       </c>
       <c r="J43">
-        <v>8350</v>
+        <v>8100</v>
       </c>
       <c r="K43">
         <v>8220</v>
@@ -2778,7 +2778,7 @@
         <v>106</v>
       </c>
       <c r="J44">
-        <v>65.55</v>
+        <v>64.45</v>
       </c>
       <c r="K44">
         <v>68.40000000000001</v>
@@ -2825,13 +2825,13 @@
         <v>107</v>
       </c>
       <c r="J45">
-        <v>66.7</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="K45">
         <v>70</v>
       </c>
       <c r="L45">
-        <v>1.1727</v>
+        <v>1.1852</v>
       </c>
       <c r="M45" t="s">
         <v>114</v>
@@ -2872,7 +2872,7 @@
         <v>108</v>
       </c>
       <c r="J46">
-        <v>252.8</v>
+        <v>249.6</v>
       </c>
       <c r="K46">
         <v>266.4</v>
@@ -2891,6 +2891,9 @@
       </c>
     </row>
     <row r="47" spans="1:15">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="B47" t="s">
         <v>60</v>
       </c>
@@ -2935,6 +2938,9 @@
       </c>
     </row>
     <row r="48" spans="1:15">
+      <c r="A48">
+        <v>47</v>
+      </c>
       <c r="B48" t="s">
         <v>61</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>110</v>
       </c>
       <c r="J48">
-        <v>72.12</v>
+        <v>71.72</v>
       </c>
       <c r="K48">
         <v>78.28</v>
@@ -2978,7 +2984,10 @@
         <v>0.7000000000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="1:15">
+      <c r="A49">
+        <v>48</v>
+      </c>
       <c r="B49" t="s">
         <v>62</v>
       </c>
@@ -3004,7 +3013,7 @@
         <v>111</v>
       </c>
       <c r="J49">
-        <v>207.4</v>
+        <v>203.9</v>
       </c>
       <c r="K49">
         <v>197.3</v>
@@ -3022,7 +3031,10 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="1:15">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="B50" t="s">
         <v>63</v>
       </c>
@@ -3048,7 +3060,7 @@
         <v>112</v>
       </c>
       <c r="J50">
-        <v>13.16</v>
+        <v>12.78</v>
       </c>
       <c r="K50">
         <v>13.88</v>
@@ -3066,7 +3078,10 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="1:15">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="B51" t="s">
         <v>43</v>
       </c>
@@ -3092,7 +3107,7 @@
         <v>92</v>
       </c>
       <c r="J51">
-        <v>21.12</v>
+        <v>21.04</v>
       </c>
       <c r="K51">
         <v>22.48</v>

--- a/GUI + Reviews/debug_output.xlsx
+++ b/GUI + Reviews/debug_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="117">
   <si>
     <t>Rank</t>
   </si>
@@ -115,12 +115,12 @@
     <t>JDE PEET'S</t>
   </si>
   <si>
-    <t>JUST EAT TAKEAWAY</t>
-  </si>
-  <si>
     <t>KPN KON</t>
   </si>
   <si>
+    <t>MAGNUM</t>
+  </si>
+  <si>
     <t>NN GROUP</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>NL0014332678</t>
   </si>
   <si>
-    <t>NL0012015705</t>
-  </si>
-  <si>
     <t>NL0000009082</t>
   </si>
   <si>
+    <t>NL0015002MS2</t>
+  </si>
+  <si>
     <t>NL0010773842</t>
   </si>
   <si>
@@ -289,7 +289,7 @@
     <t>NL0015000IY2</t>
   </si>
   <si>
-    <t>GB00B10RZP78</t>
+    <t>GB00BVZK7T90</t>
   </si>
   <si>
     <t>BE0974349814</t>
@@ -804,10 +804,10 @@
         <v>64</v>
       </c>
       <c r="J2">
-        <v>25.64</v>
+        <v>29.74</v>
       </c>
       <c r="K2">
-        <v>25.87</v>
+        <v>26.89</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -816,7 +816,7 @@
         <v>113</v>
       </c>
       <c r="N2">
-        <v>14127782955.33</v>
+        <v>15932197690.94</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -851,10 +851,10 @@
         <v>65</v>
       </c>
       <c r="J3">
-        <v>1321</v>
+        <v>1331</v>
       </c>
       <c r="K3">
-        <v>1474.4</v>
+        <v>1301</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>113</v>
       </c>
       <c r="N3">
-        <v>27393949852.9</v>
+        <v>28005056194.2</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -898,10 +898,10 @@
         <v>66</v>
       </c>
       <c r="J4">
-        <v>6.54</v>
+        <v>6.322</v>
       </c>
       <c r="K4">
-        <v>6.856</v>
+        <v>6.52</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>113</v>
       </c>
       <c r="N4">
-        <v>8195667840.56</v>
+        <v>8676818099.84</v>
       </c>
       <c r="O4">
         <v>0.75</v>
@@ -945,10 +945,10 @@
         <v>67</v>
       </c>
       <c r="J5">
-        <v>33.67</v>
+        <v>34.84</v>
       </c>
       <c r="K5">
-        <v>35.05</v>
+        <v>35.32</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -957,7 +957,7 @@
         <v>113</v>
       </c>
       <c r="N5">
-        <v>18369435800.07</v>
+        <v>18407108282.5</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>68</v>
       </c>
       <c r="J6">
-        <v>60.86</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>60.92</v>
+        <v>53.86</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1004,10 +1004,10 @@
         <v>113</v>
       </c>
       <c r="N6">
-        <v>6822979571.39</v>
+        <v>6659624991.95</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1039,10 +1039,10 @@
         <v>116</v>
       </c>
       <c r="J7">
-        <v>29.4</v>
+        <v>38.43</v>
       </c>
       <c r="K7">
-        <v>29.16</v>
+        <v>34.05</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>113</v>
       </c>
       <c r="N7">
-        <v>15340551429.11</v>
+        <v>15929438511.14</v>
       </c>
       <c r="O7">
         <v>0.5</v>
@@ -1074,7 +1074,7 @@
         <v>49328548</v>
       </c>
       <c r="F8">
-        <v>0.9500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1086,10 +1086,10 @@
         <v>70</v>
       </c>
       <c r="J8">
-        <v>455.9</v>
+        <v>542.8</v>
       </c>
       <c r="K8">
-        <v>409.7</v>
+        <v>475.3</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1098,10 +1098,10 @@
         <v>113</v>
       </c>
       <c r="N8">
-        <v>19972288709.35</v>
+        <v>20236545671.5</v>
       </c>
       <c r="O8">
-        <v>0.9500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.587289687307</v>
+        <v>0.43233629345003</v>
       </c>
       <c r="H9" t="s">
         <v>115</v>
@@ -1133,19 +1133,19 @@
         <v>71</v>
       </c>
       <c r="J9">
-        <v>732.9</v>
+        <v>940.9</v>
       </c>
       <c r="K9">
-        <v>646.2</v>
+        <v>834</v>
       </c>
       <c r="L9">
-        <v>1.1852</v>
+        <v>1.1757</v>
       </c>
       <c r="M9" t="s">
         <v>113</v>
       </c>
       <c r="N9">
-        <v>127526144885.5</v>
+        <v>129408682186.6</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1180,10 +1180,10 @@
         <v>72</v>
       </c>
       <c r="J10">
-        <v>56.9</v>
+        <v>58.72</v>
       </c>
       <c r="K10">
-        <v>63.26</v>
+        <v>57.4</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1192,10 +1192,10 @@
         <v>113</v>
       </c>
       <c r="N10">
-        <v>5450284968.06</v>
+        <v>5982928831.22</v>
       </c>
       <c r="O10">
-        <v>0.65</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1227,10 +1227,10 @@
         <v>73</v>
       </c>
       <c r="J11">
-        <v>116.6</v>
+        <v>136.9</v>
       </c>
       <c r="K11">
-        <v>119</v>
+        <v>122.8</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1239,7 +1239,7 @@
         <v>113</v>
       </c>
       <c r="N11">
-        <v>13641043384.15</v>
+        <v>14573414816.61</v>
       </c>
       <c r="O11">
         <v>0.9</v>
@@ -1274,10 +1274,10 @@
         <v>74</v>
       </c>
       <c r="J12">
-        <v>15.04</v>
+        <v>13.63</v>
       </c>
       <c r="K12">
-        <v>17.53</v>
+        <v>13.86</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="N12">
-        <v>2566839098.97</v>
+        <v>2927559626.64</v>
       </c>
       <c r="O12">
         <v>0.25</v>
@@ -1321,10 +1321,10 @@
         <v>75</v>
       </c>
       <c r="J13">
-        <v>78.22</v>
+        <v>68</v>
       </c>
       <c r="K13">
-        <v>84.94</v>
+        <v>71.14</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1333,10 +1333,10 @@
         <v>113</v>
       </c>
       <c r="N13">
-        <v>11603691893.54</v>
+        <v>11620540899.24</v>
       </c>
       <c r="O13">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1368,10 +1368,10 @@
         <v>76</v>
       </c>
       <c r="J14">
-        <v>83.5</v>
+        <v>71.55</v>
       </c>
       <c r="K14">
-        <v>87.25</v>
+        <v>70.45</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         <v>113</v>
       </c>
       <c r="N14">
-        <v>3948486462.5</v>
+        <v>4114767966.22</v>
       </c>
       <c r="O14">
         <v>0.45</v>
@@ -1415,10 +1415,10 @@
         <v>77</v>
       </c>
       <c r="J15">
-        <v>65.52</v>
+        <v>69.02</v>
       </c>
       <c r="K15">
-        <v>70.86</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>113</v>
       </c>
       <c r="N15">
-        <v>14830804002.91</v>
+        <v>15200609721.18</v>
       </c>
       <c r="O15">
         <v>0.5</v>
@@ -1450,7 +1450,7 @@
         <v>59107999</v>
       </c>
       <c r="F16">
-        <v>0.9500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1462,10 +1462,10 @@
         <v>78</v>
       </c>
       <c r="J16">
-        <v>91.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K16">
-        <v>95.7</v>
+        <v>77.5</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>113</v>
       </c>
       <c r="N16">
-        <v>3861314980.85</v>
+        <v>4546776670.05</v>
       </c>
       <c r="O16">
         <v>0.9500000000000001</v>
@@ -1509,10 +1509,10 @@
         <v>79</v>
       </c>
       <c r="J17">
-        <v>21.505</v>
+        <v>23.495</v>
       </c>
       <c r="K17">
-        <v>21.32</v>
+        <v>21.515</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1521,7 +1521,7 @@
         <v>113</v>
       </c>
       <c r="N17">
-        <v>41350944601.38</v>
+        <v>43454193352.76</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1556,10 +1556,10 @@
         <v>80</v>
       </c>
       <c r="J18">
-        <v>10.83</v>
+        <v>9.92</v>
       </c>
       <c r="K18">
-        <v>13.13</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>113</v>
       </c>
       <c r="N18">
-        <v>2072115097.04</v>
+        <v>2444490623.37</v>
       </c>
       <c r="O18">
         <v>0.5</v>
@@ -1603,10 +1603,10 @@
         <v>81</v>
       </c>
       <c r="J19">
-        <v>31.08</v>
+        <v>31.68</v>
       </c>
       <c r="K19">
-        <v>26.54</v>
+        <v>31.48</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1615,7 +1615,7 @@
         <v>113</v>
       </c>
       <c r="N19">
-        <v>1988847845.11</v>
+        <v>3397692270.18</v>
       </c>
       <c r="O19">
         <v>0.3</v>
@@ -1635,10 +1635,10 @@
         <v>113</v>
       </c>
       <c r="E20">
-        <v>208967756</v>
+        <v>3888930422</v>
       </c>
       <c r="F20">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1650,10 +1650,10 @@
         <v>82</v>
       </c>
       <c r="J20">
-        <v>20.23</v>
+        <v>3.862</v>
       </c>
       <c r="K20">
-        <v>20.15</v>
+        <v>3.93</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -1662,10 +1662,10 @@
         <v>113</v>
       </c>
       <c r="N20">
-        <v>5925819498.37</v>
+        <v>9092890150.860001</v>
       </c>
       <c r="O20">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1682,10 +1682,10 @@
         <v>113</v>
       </c>
       <c r="E21">
-        <v>3888930422</v>
+        <v>612259739</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1697,22 +1697,13 @@
         <v>83</v>
       </c>
       <c r="J21">
-        <v>4.173</v>
-      </c>
-      <c r="K21">
-        <v>4.062</v>
+        <v>13.55</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="M21" t="s">
-        <v>113</v>
-      </c>
-      <c r="N21">
-        <v>8819289079.98</v>
-      </c>
       <c r="O21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1732,7 +1723,7 @@
         <v>269000000</v>
       </c>
       <c r="F22">
-        <v>0.9500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1744,10 +1735,10 @@
         <v>84</v>
       </c>
       <c r="J22">
-        <v>57.54</v>
+        <v>63.44</v>
       </c>
       <c r="K22">
-        <v>61.26</v>
+        <v>60.62</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1756,7 +1747,7 @@
         <v>113</v>
       </c>
       <c r="N22">
-        <v>9742070025.1</v>
+        <v>10090624716.81</v>
       </c>
       <c r="O22">
         <v>0.9500000000000001</v>
@@ -1791,10 +1782,10 @@
         <v>85</v>
       </c>
       <c r="J23">
-        <v>23.7</v>
+        <v>23.04</v>
       </c>
       <c r="K23">
-        <v>24.07</v>
+        <v>23.49</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1803,7 +1794,7 @@
         <v>113</v>
       </c>
       <c r="N23">
-        <v>10981255633.4</v>
+        <v>9989451140.99</v>
       </c>
       <c r="O23">
         <v>0.8</v>
@@ -1838,10 +1829,10 @@
         <v>86</v>
       </c>
       <c r="J24">
-        <v>54.63</v>
+        <v>53.05</v>
       </c>
       <c r="K24">
-        <v>53.61</v>
+        <v>56.62</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -1850,10 +1841,10 @@
         <v>113</v>
       </c>
       <c r="N24">
-        <v>32634961333.43</v>
+        <v>33535479087.77</v>
       </c>
       <c r="O24">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1885,19 +1876,19 @@
         <v>87</v>
       </c>
       <c r="J25">
-        <v>35.65</v>
+        <v>31.75</v>
       </c>
       <c r="K25">
-        <v>41.69</v>
+        <v>33.57</v>
       </c>
       <c r="L25">
-        <v>1.1852</v>
+        <v>1.1757</v>
       </c>
       <c r="M25" t="s">
         <v>113</v>
       </c>
       <c r="N25">
-        <v>4122857130.78</v>
+        <v>4120353185.48</v>
       </c>
       <c r="O25">
         <v>0.55</v>
@@ -1932,19 +1923,19 @@
         <v>88</v>
       </c>
       <c r="J26">
-        <v>39.44</v>
+        <v>34.28</v>
       </c>
       <c r="K26">
-        <v>41.38</v>
+        <v>35.28</v>
       </c>
       <c r="L26">
-        <v>1.1852</v>
+        <v>1.1757</v>
       </c>
       <c r="M26" t="s">
         <v>113</v>
       </c>
       <c r="N26">
-        <v>8729452103.059999</v>
+        <v>8963662594.59</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -1970,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.80073836475616</v>
+        <v>0.74761144574005</v>
       </c>
       <c r="H27" t="s">
         <v>115</v>
@@ -1979,10 +1970,10 @@
         <v>89</v>
       </c>
       <c r="J27">
-        <v>30.56</v>
+        <v>31.01</v>
       </c>
       <c r="K27">
-        <v>31.225</v>
+        <v>31.775</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -1991,7 +1982,7 @@
         <v>113</v>
       </c>
       <c r="N27">
-        <v>46270328133.57</v>
+        <v>44391990363.08</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -2014,7 +2005,7 @@
         <v>1834099825</v>
       </c>
       <c r="F28">
-        <v>0.6000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2026,10 +2017,10 @@
         <v>90</v>
       </c>
       <c r="J28">
-        <v>24.6</v>
+        <v>21.97</v>
       </c>
       <c r="K28">
-        <v>24.81</v>
+        <v>22.61</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -2038,7 +2029,7 @@
         <v>113</v>
       </c>
       <c r="N28">
-        <v>11344251947.12</v>
+        <v>11882607461.26</v>
       </c>
       <c r="O28">
         <v>0.6000000000000001</v>
@@ -2058,7 +2049,7 @@
         <v>113</v>
       </c>
       <c r="E29">
-        <v>2637743772</v>
+        <v>2344661130</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2073,19 +2064,10 @@
         <v>91</v>
       </c>
       <c r="J29">
-        <v>52.52</v>
-      </c>
-      <c r="K29">
-        <v>53.98</v>
+        <v>55.49</v>
       </c>
       <c r="L29">
         <v>1</v>
-      </c>
-      <c r="M29" t="s">
-        <v>113</v>
-      </c>
-      <c r="N29">
-        <v>16400794643.29</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -2120,10 +2102,10 @@
         <v>92</v>
       </c>
       <c r="J30">
-        <v>21.04</v>
+        <v>20.74</v>
       </c>
       <c r="K30">
-        <v>22.48</v>
+        <v>21.88</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2132,7 +2114,7 @@
         <v>114</v>
       </c>
       <c r="N30">
-        <v>2225128980</v>
+        <v>2327467389.61</v>
       </c>
       <c r="O30">
         <v>0.8</v>
@@ -2167,10 +2149,10 @@
         <v>93</v>
       </c>
       <c r="J31">
-        <v>110.35</v>
+        <v>88.64</v>
       </c>
       <c r="K31">
-        <v>115.3</v>
+        <v>92.76000000000001</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -2179,7 +2161,7 @@
         <v>113</v>
       </c>
       <c r="N31">
-        <v>21654386341.22</v>
+        <v>22888854350.05</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -2205,7 +2187,7 @@
         <v>0.55</v>
       </c>
       <c r="G32">
-        <v>0.22074037646803</v>
+        <v>0.24478248632254</v>
       </c>
       <c r="H32" t="s">
         <v>115</v>
@@ -2214,10 +2196,10 @@
         <v>94</v>
       </c>
       <c r="J32">
-        <v>49.04</v>
+        <v>54.12</v>
       </c>
       <c r="K32">
-        <v>54.24</v>
+        <v>54.4</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2226,7 +2208,7 @@
         <v>114</v>
       </c>
       <c r="N32">
-        <v>25726170249.08</v>
+        <v>25421540355.33</v>
       </c>
       <c r="O32">
         <v>0.55</v>
@@ -2261,19 +2243,19 @@
         <v>95</v>
       </c>
       <c r="J33">
-        <v>229.6</v>
+        <v>228</v>
       </c>
       <c r="K33">
-        <v>229</v>
+        <v>212.6</v>
       </c>
       <c r="L33">
-        <v>1.1852</v>
+        <v>1.1757</v>
       </c>
       <c r="M33" t="s">
         <v>114</v>
       </c>
       <c r="N33">
-        <v>1449285134</v>
+        <v>1467388748.55</v>
       </c>
       <c r="O33">
         <v>0.65</v>
@@ -2308,19 +2290,19 @@
         <v>96</v>
       </c>
       <c r="J34">
-        <v>62.7</v>
+        <v>63.3</v>
       </c>
       <c r="K34">
-        <v>64.84999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="L34">
-        <v>1.1852</v>
+        <v>1.1757</v>
       </c>
       <c r="M34" t="s">
         <v>114</v>
       </c>
       <c r="N34">
-        <v>1213701747.98</v>
+        <v>1310377532.51</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -2355,10 +2337,10 @@
         <v>97</v>
       </c>
       <c r="J35">
-        <v>57.85</v>
+        <v>57.4</v>
       </c>
       <c r="K35">
-        <v>62.5</v>
+        <v>58.2</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -2367,7 +2349,7 @@
         <v>114</v>
       </c>
       <c r="N35">
-        <v>4776562427.25</v>
+        <v>4877719630.38</v>
       </c>
       <c r="O35">
         <v>0.8</v>
@@ -2393,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.36915319816083</v>
+        <v>0.27064892002662</v>
       </c>
       <c r="H36" t="s">
         <v>115</v>
@@ -2402,10 +2384,10 @@
         <v>98</v>
       </c>
       <c r="J36">
-        <v>630.6</v>
+        <v>756.8</v>
       </c>
       <c r="K36">
-        <v>565.6</v>
+        <v>800.4</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2414,7 +2396,7 @@
         <v>114</v>
       </c>
       <c r="N36">
-        <v>9944334721.25</v>
+        <v>12732945553.65</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2437,7 +2419,7 @@
         <v>243921719</v>
       </c>
       <c r="F37">
-        <v>0.65</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2449,10 +2431,10 @@
         <v>99</v>
       </c>
       <c r="J37">
-        <v>12.18</v>
+        <v>9.234999999999999</v>
       </c>
       <c r="K37">
-        <v>13.48</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -2461,10 +2443,10 @@
         <v>114</v>
       </c>
       <c r="N37">
-        <v>1143202488.05</v>
+        <v>1233761301.07</v>
       </c>
       <c r="O37">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2496,10 +2478,10 @@
         <v>100</v>
       </c>
       <c r="J38">
-        <v>74.40000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="K38">
-        <v>76.3</v>
+        <v>76.95</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2508,7 +2490,7 @@
         <v>114</v>
       </c>
       <c r="N38">
-        <v>1426881949.13</v>
+        <v>1425371963.6</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -2543,10 +2525,10 @@
         <v>101</v>
       </c>
       <c r="J39">
-        <v>162.2</v>
+        <v>144.7</v>
       </c>
       <c r="K39">
-        <v>190.8</v>
+        <v>147</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2555,7 +2537,7 @@
         <v>114</v>
       </c>
       <c r="N39">
-        <v>2674019169.9</v>
+        <v>2402456712.9</v>
       </c>
       <c r="O39">
         <v>0.4</v>
@@ -2590,10 +2572,10 @@
         <v>102</v>
       </c>
       <c r="J40">
-        <v>95.34999999999999</v>
+        <v>100.6</v>
       </c>
       <c r="K40">
-        <v>99.45</v>
+        <v>103.9</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -2602,7 +2584,7 @@
         <v>114</v>
       </c>
       <c r="N40">
-        <v>2796842318.59</v>
+        <v>3109890216.43</v>
       </c>
       <c r="O40">
         <v>0.45</v>
@@ -2637,19 +2619,19 @@
         <v>103</v>
       </c>
       <c r="J41">
-        <v>74.3</v>
+        <v>73.45</v>
       </c>
       <c r="K41">
-        <v>76.7</v>
+        <v>72.8</v>
       </c>
       <c r="L41">
-        <v>1.1852</v>
+        <v>1.1757</v>
       </c>
       <c r="M41" t="s">
         <v>114</v>
       </c>
       <c r="N41">
-        <v>1883275924.85</v>
+        <v>1916925161.63</v>
       </c>
       <c r="O41">
         <v>0.55</v>
@@ -2675,7 +2657,7 @@
         <v>0.55</v>
       </c>
       <c r="G42">
-        <v>0.62828330826051</v>
+        <v>0.54404941800678</v>
       </c>
       <c r="H42" t="s">
         <v>115</v>
@@ -2684,10 +2666,10 @@
         <v>104</v>
       </c>
       <c r="J42">
-        <v>100.85</v>
+        <v>109.15</v>
       </c>
       <c r="K42">
-        <v>104.9</v>
+        <v>105.35</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2696,7 +2678,7 @@
         <v>114</v>
       </c>
       <c r="N42">
-        <v>9707769876.25</v>
+        <v>10071343860.98</v>
       </c>
       <c r="O42">
         <v>0.55</v>
@@ -2731,10 +2713,10 @@
         <v>105</v>
       </c>
       <c r="J43">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="K43">
-        <v>8220</v>
+        <v>7710</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -2743,7 +2725,7 @@
         <v>114</v>
       </c>
       <c r="N43">
-        <v>1573541315</v>
+        <v>1610483100</v>
       </c>
       <c r="O43">
         <v>0.5</v>
@@ -2778,10 +2760,10 @@
         <v>106</v>
       </c>
       <c r="J44">
-        <v>64.45</v>
+        <v>58.25</v>
       </c>
       <c r="K44">
-        <v>68.40000000000001</v>
+        <v>50.45</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -2790,7 +2772,7 @@
         <v>114</v>
       </c>
       <c r="N44">
-        <v>925700152.9400001</v>
+        <v>948008325.83</v>
       </c>
       <c r="O44">
         <v>0.5</v>
@@ -2825,19 +2807,19 @@
         <v>107</v>
       </c>
       <c r="J45">
-        <v>66.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>70</v>
+        <v>69.7</v>
       </c>
       <c r="L45">
-        <v>1.1852</v>
+        <v>1</v>
       </c>
       <c r="M45" t="s">
         <v>114</v>
       </c>
       <c r="N45">
-        <v>501489910.12</v>
+        <v>534962636.27</v>
       </c>
       <c r="O45">
         <v>0.9</v>
@@ -2857,7 +2839,7 @@
         <v>114</v>
       </c>
       <c r="E46">
-        <v>34250000</v>
+        <v>36696428</v>
       </c>
       <c r="F46">
         <v>0.4</v>
@@ -2872,10 +2854,10 @@
         <v>108</v>
       </c>
       <c r="J46">
-        <v>249.6</v>
+        <v>237.2</v>
       </c>
       <c r="K46">
-        <v>266.4</v>
+        <v>239.4</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -2884,16 +2866,13 @@
         <v>114</v>
       </c>
       <c r="N46">
-        <v>1502219935.7</v>
+        <v>1635145816.6</v>
       </c>
       <c r="O46">
         <v>0.4</v>
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47">
-        <v>46</v>
-      </c>
       <c r="B47" t="s">
         <v>60</v>
       </c>
@@ -2919,10 +2898,10 @@
         <v>109</v>
       </c>
       <c r="J47">
-        <v>27.46</v>
+        <v>26.92</v>
       </c>
       <c r="K47">
-        <v>28.98</v>
+        <v>27.76</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -2931,16 +2910,13 @@
         <v>114</v>
       </c>
       <c r="N47">
-        <v>1711105054.57</v>
+        <v>1859542417.37</v>
       </c>
       <c r="O47">
         <v>0.65</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48">
-        <v>47</v>
-      </c>
       <c r="B48" t="s">
         <v>61</v>
       </c>
@@ -2966,10 +2942,10 @@
         <v>110</v>
       </c>
       <c r="J48">
-        <v>71.72</v>
+        <v>70.12</v>
       </c>
       <c r="K48">
-        <v>78.28</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -2978,16 +2954,13 @@
         <v>114</v>
       </c>
       <c r="N48">
-        <v>2789981038.9</v>
+        <v>2565504599.65</v>
       </c>
       <c r="O48">
         <v>0.7000000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49">
-        <v>48</v>
-      </c>
+    <row r="49" spans="2:15">
       <c r="B49" t="s">
         <v>62</v>
       </c>
@@ -3004,7 +2977,7 @@
         <v>0.65</v>
       </c>
       <c r="G49">
-        <v>0.5538271268473099</v>
+        <v>0.44682397435343</v>
       </c>
       <c r="H49" t="s">
         <v>115</v>
@@ -3013,10 +2986,10 @@
         <v>111</v>
       </c>
       <c r="J49">
-        <v>203.9</v>
+        <v>240.7</v>
       </c>
       <c r="K49">
-        <v>197.3</v>
+        <v>233</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -3025,16 +2998,13 @@
         <v>114</v>
       </c>
       <c r="N49">
-        <v>10229512336.52</v>
+        <v>11801415217.01</v>
       </c>
       <c r="O49">
         <v>0.65</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50">
-        <v>49</v>
-      </c>
+    <row r="50" spans="2:15">
       <c r="B50" t="s">
         <v>63</v>
       </c>
@@ -3060,10 +3030,10 @@
         <v>112</v>
       </c>
       <c r="J50">
-        <v>12.78</v>
+        <v>15.85</v>
       </c>
       <c r="K50">
-        <v>13.88</v>
+        <v>14.52</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -3072,16 +3042,13 @@
         <v>114</v>
       </c>
       <c r="N50">
-        <v>1996739455.4</v>
+        <v>1804403506.06</v>
       </c>
       <c r="O50">
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51">
-        <v>50</v>
-      </c>
+    <row r="51" spans="2:15">
       <c r="B51" t="s">
         <v>43</v>
       </c>
@@ -3107,10 +3074,10 @@
         <v>92</v>
       </c>
       <c r="J51">
-        <v>21.04</v>
+        <v>20.74</v>
       </c>
       <c r="K51">
-        <v>22.48</v>
+        <v>21.88</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -3119,7 +3086,7 @@
         <v>114</v>
       </c>
       <c r="N51">
-        <v>2225128980</v>
+        <v>2327467389.61</v>
       </c>
       <c r="O51">
         <v>0.8</v>
